--- a/ProjektFiler/xlsx-docs/gridSearchRankinghepatitis.xlsx
+++ b/ProjektFiler/xlsx-docs/gridSearchRankinghepatitis.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\IdeaProjects\Machine_Learning_DT\ProjektFiler\xlsx-docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="sammanställning" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -45,13 +51,45 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>hepatitis</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>haberman</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>breast-w</t>
+  </si>
+  <si>
+    <t>balance-scale</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,15 +117,3492 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 0</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>: 5</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr>
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13611111111111113"/>
+                  <c:y val="0.12037037037037036"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                      <a:lnSpc>
+                        <a:spcPct val="100000"/>
+                      </a:lnSpc>
+                      <a:spcBef>
+                        <a:spcPts val="0"/>
+                      </a:spcBef>
+                      <a:spcAft>
+                        <a:spcPts val="0"/>
+                      </a:spcAft>
+                      <a:buClrTx/>
+                      <a:buSzTx/>
+                      <a:buFontTx/>
+                      <a:buNone/>
+                      <a:tabLst/>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 12</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>: 20</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="25000"/>
+                      <a:lumOff val="75000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>max_features:</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 0</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:t>min_sample_leaf</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>: 0</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 10</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>: 0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>data!$B$2:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ODTC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ORFC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DTC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RFC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>82.978723404255319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.361702127659569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.106382978723403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.106382978723403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1822686544"/>
+        <c:axId val="1822681648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1822686544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822681648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1822681648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1822686544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>sammanställning!$G$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ODTC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ORFC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DTC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RFC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sammanställning!$G$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>86.5940525614878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.549632540058866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.41637770797395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.210631583015171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.093800575221024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1891726928"/>
+        <c:axId val="1891729648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1891726928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891729648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1891729648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1891726928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> hepatitis.csv</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>max_features</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>: 0</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:t>min_sample_lea</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>f: 5</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 12</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf: 20 </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 0</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf: 0 </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.37806933508311463"/>
+                      <c:h val="0.10430555555555554"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 10</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf: 0 </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>max_features: 0</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:sysClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>min_sample_leaf: 0 </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>sammanställning!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ODTC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ORFC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DTC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RFC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>sammanställning!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>82.978723404255319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.361702127659569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.106382978723403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.106382978723403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.468085106382972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1775433296"/>
+        <c:axId val="1775436560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1775433296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775436560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775436560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775433296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,7 +3648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -165,9 +3680,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,6 +3715,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,14 +3891,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="B1:E5 B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +3920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -415,13 +3934,13 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>82.97872340425532</v>
+        <v>82.978723404255319</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -435,13 +3954,13 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>89.36170212765957</v>
+        <v>89.361702127659569</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -455,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>85.1063829787234</v>
+        <v>85.106382978723403</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -475,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>85.1063829787234</v>
+        <v>85.106382978723403</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -483,5 +4002,772 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>82.978723404255319</v>
+      </c>
+      <c r="G2">
+        <v>82.978723404255319</v>
+      </c>
+      <c r="H2">
+        <v>89.361702127659569</v>
+      </c>
+      <c r="I2">
+        <v>85.106382978723403</v>
+      </c>
+      <c r="J2">
+        <v>85.106382978723403</v>
+      </c>
+      <c r="K2">
+        <v>74.468085106382972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>89.361702127659569</v>
+      </c>
+      <c r="G3">
+        <v>97.777777779999994</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>95.555549999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>85.106382978723403</v>
+      </c>
+      <c r="G4">
+        <v>80.434782609999999</v>
+      </c>
+      <c r="H4">
+        <v>82.608695650000001</v>
+      </c>
+      <c r="I4">
+        <v>82.608695650000001</v>
+      </c>
+      <c r="J4">
+        <v>81.52173913</v>
+      </c>
+      <c r="K4">
+        <v>77.173913043478265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>85.106382978723403</v>
+      </c>
+      <c r="G5">
+        <v>68.75</v>
+      </c>
+      <c r="H5">
+        <v>81.25</v>
+      </c>
+      <c r="I5">
+        <v>79.6875</v>
+      </c>
+      <c r="J5">
+        <v>85.9375</v>
+      </c>
+      <c r="K5">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>74.468085106382972</v>
+      </c>
+      <c r="G6">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H6">
+        <v>98.095238095238088</v>
+      </c>
+      <c r="I6">
+        <v>94.761904761904759</v>
+      </c>
+      <c r="J6">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="K6">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>88.439306358381501</v>
+      </c>
+      <c r="H7">
+        <v>96.531791907514446</v>
+      </c>
+      <c r="I7">
+        <v>87.861271676300575</v>
+      </c>
+      <c r="J7">
+        <v>94.797687861271669</v>
+      </c>
+      <c r="K7">
+        <v>95.375722543352609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>97.777777779999994</v>
+      </c>
+      <c r="G8">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="J8">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="K8">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <f>AVERAGE(G2:G8)</f>
+        <v>86.5940525614878</v>
+      </c>
+      <c r="H9" s="1">
+        <f>AVERAGE(H2:H8)</f>
+        <v>92.549632540058866</v>
+      </c>
+      <c r="I9" s="1">
+        <f>AVERAGE(I2:I8)</f>
+        <v>88.41637770797395</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(J2:J8)</f>
+        <v>91.210631583015171</v>
+      </c>
+      <c r="K9" s="1">
+        <f>AVERAGE(K2:K8)</f>
+        <v>82.093800575221024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>95.555549999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>80.434782609999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>82.608695650000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>82.608695650000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>81.52173913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>77.173913043478265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>98.095238095238088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>94.761904761904759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>88.439306358381501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>96.531791907514446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>87.861271676300575</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>94.797687861271669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>95.375722543352609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>